--- a/data/datatables_POD_Hospital.xlsx
+++ b/data/datatables_POD_Hospital.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="gender" sheetId="1" state="visible" r:id="rId3"/>
@@ -118,13 +118,13 @@
     <t xml:space="preserve">Moens et al. (Mexico)</t>
   </si>
   <si>
-    <t xml:space="preserve">Moens et al. (New-Zealand)</t>
+    <t xml:space="preserve">Moens et al. (New Zealand)</t>
   </si>
   <si>
     <t xml:space="preserve">Moens et al. (Spain)</t>
   </si>
   <si>
-    <t xml:space="preserve">Moens et al. (South Corea)</t>
+    <t xml:space="preserve">Moens et al. (South Korea)</t>
   </si>
   <si>
     <t xml:space="preserve">Moens et al. (Czech Republic)</t>
@@ -1177,8 +1177,8 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8318,12 +8318,12 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="1" width="9.06"/>
   </cols>
@@ -9051,7 +9051,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9651,7 +9651,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10206,7 +10206,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11682,7 +11682,7 @@
   </sheetPr>
   <dimension ref="A1:CD21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="CZ1" activeCellId="0" sqref="CZ1"/>
     </sheetView>
   </sheetViews>
